--- a/src/main/resources/static/excels/DANHSACH_DIEMDANH_TEMPLATE.xlsx
+++ b/src/main/resources/static/excels/DANHSACH_DIEMDANH_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationAssignment\3. Delivery\02_HeThongSoTayLienLacDienTu\trunk\source\E2PortalProject-master\src\main\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationAssignment\3. Delivery\02_HeThongSoTayLienLacDienTu\trunk\source\E2PortalProject\src\main\resources\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBDA761-9AFA-4C47-A9D8-B794D3DDA3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D944CE6E-E26B-4B79-8782-0AF300B7B7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9BB4823A-C4FF-474C-9687-EC1CA7901E7D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
   <si>
     <t>Học kỳ</t>
   </si>
@@ -268,18 +268,32 @@
   </si>
   <si>
     <t>ATD</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>CNTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,28 +425,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402857B5-3CC1-42F4-B33F-F930953E837F}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -797,6 +815,9 @@
       <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="K1" s="17" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -828,6 +849,9 @@
       </c>
       <c r="J2" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
